--- a/biology/Botanique/Stilbaceae/Stilbaceae.xlsx
+++ b/biology/Botanique/Stilbaceae/Stilbaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Stilbaceae ou Stilbacées regroupe des plantes dicotylédones. En classification phylogénétique APG III (2009)[1] c'est une petite famille qui comprend quelques douzaines d'espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Stilbaceae ou Stilbacées regroupe des plantes dicotylédones. En classification phylogénétique APG III (2009) c'est une petite famille qui comprend quelques douzaines d'espèces.
 Ce sont des buissons à feuilles entières très serrées, originaires des régions tropicales ou subtropicales d’Afrique du Sud.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Stilbe, du grec Στίλβη / Stilbe, brillance[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Stilbe, du grec Στίλβη / Stilbe, brillance.
 Dans la mythologie grecque, Stilbé était une nymphe et une des filles de Penée dieu du fleuve  et de la naïade Créuse. Elle était la mère de Centauros, ancêtre des centaures
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981)[3] qui assigne Nuxia à la famille des Buddlejaceae et les autres genres à la famille des Verbenaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981) qui assigne Nuxia à la famille des Buddlejaceae et les autres genres à la famille des Verbenaceae.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015) :
 Campylostachys Kunth (1831)
 Euthystachys A.DC. (1848)
 Kogelbergia Rourke (2000)
@@ -585,7 +603,7 @@
 Retzia Thunb. (1776)
 Stilbe Berg. (1767)
 Thesmophora Rourke (1993)
-Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[5] :
+Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Anastrabe Bentham
 Bowkeria Harvey
 Brookea Bentham (does this really go here?)
@@ -595,7 +613,7 @@
 Nuxia Lamarck
 Stilbe Bergius
 Thesmophora Rourke
-Selon NCBI  (12 nov. 2015)[6] :
+Selon NCBI  (12 nov. 2015) :
 Anastrabe
 Bowkeria
 Campylostachys
@@ -607,7 +625,7 @@
 Nuxia
 Retzia
 Stilbe
-Selon DELTA Angio           (12 nov. 2015)[7] :
+Selon DELTA Angio           (12 nov. 2015) :
 Campylostachys
 Eurylobium
 Euthystachys
@@ -640,9 +658,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 Jul 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 Jul 2010) :
 genre Campylostachys Kunth (1831)
 Campylostachys cernua (L.f.) Kunth (1831)
 genre Euthystachys A.DC. (1848)
@@ -678,7 +698,7 @@
 Stilbe vestita Berg. (1767)
 genre Thesmophora Rourke (1993)
 Thesmophora scopulosa Rourke (1993)
-Selon NCBI  (8 Jul 2010)[9] :
+Selon NCBI  (8 Jul 2010) :
 genre Anastrabe
 Anastrabe integerrima
 genre Bowkeria
